--- a/summary_file_droppeCOVIDrevs_FY2022.xlsx
+++ b/summary_file_droppeCOVIDrevs_FY2022.xlsx
@@ -21937,7 +21937,7 @@
         <v>59</v>
       </c>
       <c r="D696" t="n">
-        <v>1897.14146819</v>
+        <v>1676.31878603</v>
       </c>
       <c r="E696" t="s">
         <v>60</v>
@@ -22447,7 +22447,7 @@
         <v>59</v>
       </c>
       <c r="D726" t="n">
-        <v>1410.09469536</v>
+        <v>1391.12864775</v>
       </c>
       <c r="E726" t="s">
         <v>60</v>
@@ -22566,7 +22566,7 @@
         <v>73</v>
       </c>
       <c r="D733" t="n">
-        <v>2205.55107932</v>
+        <v>1834.46138382</v>
       </c>
       <c r="E733" t="s">
         <v>74</v>
@@ -23034,44 +23034,44 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="C11" t="n">
-        <v>31.4</v>
+        <v>7.06</v>
       </c>
       <c r="D11" t="n">
-        <v>7.15</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>7.06</v>
+        <v>-0.83</v>
       </c>
       <c r="D12" t="n">
-        <v>7.54</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.83</v>
+        <v>9.29</v>
       </c>
       <c r="D13" t="n">
-        <v>6.11</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="14">
@@ -23110,10 +23110,10 @@
         <v>1.4</v>
       </c>
       <c r="C16" t="n">
-        <v>-25.67</v>
+        <v>-17.01</v>
       </c>
       <c r="D16" t="n">
-        <v>4.73</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="17">
@@ -24385,22 +24385,22 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>-25.67</v>
+        <v>-17.01</v>
       </c>
       <c r="C8" t="n">
-        <v>50.78</v>
+        <v>49.77</v>
       </c>
       <c r="D8" t="n">
-        <v>34.76</v>
+        <v>34.15</v>
       </c>
       <c r="E8" t="n">
-        <v>16.78</v>
+        <v>16.46</v>
       </c>
       <c r="F8" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="G8" t="n">
-        <v>4.73</v>
+        <v>4.67</v>
       </c>
     </row>
     <row r="9">
@@ -24822,22 +24822,22 @@
         <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>31.4</v>
+        <v>9.29</v>
       </c>
       <c r="C27" t="n">
-        <v>39.94</v>
+        <v>27.63</v>
       </c>
       <c r="D27" t="n">
-        <v>54.41</v>
+        <v>45.21</v>
       </c>
       <c r="E27" t="n">
-        <v>35.09</v>
+        <v>30.21</v>
       </c>
       <c r="F27" t="n">
-        <v>15.96</v>
+        <v>13.84</v>
       </c>
       <c r="G27" t="n">
-        <v>7.15</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="28">
@@ -24962,170 +24962,170 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1998</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>31218.4556557</v>
+        <v>99785.57583777</v>
       </c>
       <c r="C2" t="n">
-        <v>31264.6818251</v>
+        <v>104536.89862629</v>
       </c>
       <c r="D2" t="n">
-        <v>46</v>
+        <v>4751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1999</v>
+        <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>33804.96576153</v>
+        <v>92807.10818869</v>
       </c>
       <c r="C3" t="n">
-        <v>33030.24759485</v>
+        <v>91577.64567625</v>
       </c>
       <c r="D3" t="n">
-        <v>-775</v>
+        <v>-1229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2000</v>
+        <v>2020</v>
       </c>
       <c r="B4" t="n">
-        <v>37283.0484234</v>
+        <v>81574.30708322</v>
       </c>
       <c r="C4" t="n">
-        <v>35846.01278232</v>
+        <v>74622.7453303</v>
       </c>
       <c r="D4" t="n">
-        <v>-1437</v>
+        <v>-6952</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2001</v>
+        <v>2019</v>
       </c>
       <c r="B5" t="n">
-        <v>40300.24229108</v>
+        <v>74383.59556887</v>
       </c>
       <c r="C5" t="n">
-        <v>37147.74155936</v>
+        <v>72152.86792715</v>
       </c>
       <c r="D5" t="n">
-        <v>-3153</v>
+        <v>-2231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2002</v>
+        <v>2018</v>
       </c>
       <c r="B6" t="n">
-        <v>42014.32484476</v>
+        <v>74942.56778491</v>
       </c>
       <c r="C6" t="n">
-        <v>36825.92689326</v>
+        <v>70256.5668322</v>
       </c>
       <c r="D6" t="n">
-        <v>-5188</v>
+        <v>-4686</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2003</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="n">
-        <v>42567.13604378</v>
+        <v>71704.78677854</v>
       </c>
       <c r="C7" t="n">
-        <v>36805.69976915</v>
+        <v>60945.18463144</v>
       </c>
       <c r="D7" t="n">
-        <v>-5761</v>
+        <v>-10760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2004</v>
+        <v>2016</v>
       </c>
       <c r="B8" t="n">
-        <v>52980.20713006</v>
+        <v>63909.28178688</v>
       </c>
       <c r="C8" t="n">
-        <v>40856.23669512</v>
+        <v>61806.01279253</v>
       </c>
       <c r="D8" t="n">
-        <v>-12124</v>
+        <v>-2103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="B9" t="n">
-        <v>45331.21505246</v>
+        <v>69920.57755159</v>
       </c>
       <c r="C9" t="n">
-        <v>42865.85989889</v>
+        <v>63882.73647204</v>
       </c>
       <c r="D9" t="n">
-        <v>-2465</v>
+        <v>-6038</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2006</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="n">
-        <v>48028.45089847</v>
+        <v>66941.54371749</v>
       </c>
       <c r="C10" t="n">
-        <v>44700.58108122</v>
+        <v>62519.59401338</v>
       </c>
       <c r="D10" t="n">
-        <v>-3328</v>
+        <v>-4422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="B11" t="n">
-        <v>51098.59908858</v>
+        <v>63261.01592636</v>
       </c>
       <c r="C11" t="n">
-        <v>48033.24657002</v>
+        <v>60502.20379116</v>
       </c>
       <c r="D11" t="n">
-        <v>-3065</v>
+        <v>-2759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>54138.63848686</v>
+        <v>59831.151018</v>
       </c>
       <c r="C12" t="n">
-        <v>50213.47771324</v>
+        <v>55452.47810214</v>
       </c>
       <c r="D12" t="n">
-        <v>-3925</v>
+        <v>-4379</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B13" t="n">
-        <v>56721.04766907</v>
+        <v>60403.66316511</v>
       </c>
       <c r="C13" t="n">
-        <v>49858.93285555</v>
+        <v>51719.80617799</v>
       </c>
       <c r="D13" t="n">
-        <v>-6862</v>
+        <v>-8684</v>
       </c>
     </row>
     <row r="14">
@@ -25136,178 +25136,178 @@
         <v>59247.71610651</v>
       </c>
       <c r="C14" t="n">
-        <v>49838.70244961</v>
+        <v>46059.51698249</v>
       </c>
       <c r="D14" t="n">
-        <v>-9409</v>
+        <v>-13188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="B15" t="n">
-        <v>60403.66316511</v>
+        <v>56721.04766907</v>
       </c>
       <c r="C15" t="n">
-        <v>54731.97018504</v>
+        <v>47822.53037459</v>
       </c>
       <c r="D15" t="n">
-        <v>-5672</v>
+        <v>-8899</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B16" t="n">
-        <v>59831.151018</v>
+        <v>54138.63848686</v>
       </c>
       <c r="C16" t="n">
-        <v>56248.09850297</v>
+        <v>50213.47771324</v>
       </c>
       <c r="D16" t="n">
-        <v>-3583</v>
+        <v>-3925</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2013</v>
+        <v>2007</v>
       </c>
       <c r="B17" t="n">
-        <v>63261.01592636</v>
+        <v>51098.59908858</v>
       </c>
       <c r="C17" t="n">
-        <v>60804.21955684</v>
+        <v>48033.24657002</v>
       </c>
       <c r="D17" t="n">
-        <v>-2457</v>
+        <v>-3065</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="B18" t="n">
-        <v>66941.54371749</v>
+        <v>48028.45089847</v>
       </c>
       <c r="C18" t="n">
-        <v>62772.23529438</v>
+        <v>44700.58108122</v>
       </c>
       <c r="D18" t="n">
-        <v>-4169</v>
+        <v>-3328</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>69920.57755159</v>
+        <v>45331.21505246</v>
       </c>
       <c r="C19" t="n">
-        <v>64113.55535379</v>
+        <v>42865.85989889</v>
       </c>
       <c r="D19" t="n">
-        <v>-5807</v>
+        <v>-2465</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="B20" t="n">
-        <v>63909.28178688</v>
+        <v>52980.20713006</v>
       </c>
       <c r="C20" t="n">
-        <v>61985.5590092</v>
+        <v>40856.23669512</v>
       </c>
       <c r="D20" t="n">
-        <v>-1924</v>
+        <v>-12124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2017</v>
+        <v>2003</v>
       </c>
       <c r="B21" t="n">
-        <v>71704.78677854</v>
+        <v>42567.13604378</v>
       </c>
       <c r="C21" t="n">
-        <v>61349.20521982</v>
+        <v>36805.69976915</v>
       </c>
       <c r="D21" t="n">
-        <v>-10356</v>
+        <v>-5761</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2018</v>
+        <v>2002</v>
       </c>
       <c r="B22" t="n">
-        <v>74942.56778491</v>
+        <v>42014.32484476</v>
       </c>
       <c r="C22" t="n">
-        <v>70465.15077644</v>
+        <v>36825.92689326</v>
       </c>
       <c r="D22" t="n">
-        <v>-4477</v>
+        <v>-5188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2019</v>
+        <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>74383.59556887</v>
+        <v>40300.24229108</v>
       </c>
       <c r="C23" t="n">
-        <v>72152.86792715</v>
+        <v>37147.74155936</v>
       </c>
       <c r="D23" t="n">
-        <v>-2231</v>
+        <v>-3153</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2020</v>
+        <v>2000</v>
       </c>
       <c r="B24" t="n">
-        <v>81574.30708322</v>
+        <v>37283.0484234</v>
       </c>
       <c r="C24" t="n">
-        <v>78141.690696</v>
+        <v>35846.01278232</v>
       </c>
       <c r="D24" t="n">
-        <v>-3433</v>
+        <v>-1437</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="B25" t="n">
-        <v>93027.93087085</v>
+        <v>33804.96576153</v>
       </c>
       <c r="C25" t="n">
-        <v>91806.06006519</v>
+        <v>33030.24759485</v>
       </c>
       <c r="D25" t="n">
-        <v>-1222</v>
+        <v>-775</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2022</v>
+        <v>1998</v>
       </c>
       <c r="B26" t="n">
-        <v>100175.63158088</v>
+        <v>31218.4556557</v>
       </c>
       <c r="C26" t="n">
-        <v>113392.64805172</v>
+        <v>31264.6818251</v>
       </c>
       <c r="D26" t="n">
-        <v>13217</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/summary_file_droppeCOVIDrevs_FY2022.xlsx
+++ b/summary_file_droppeCOVIDrevs_FY2022.xlsx
@@ -9768,7 +9768,7 @@
         <v>10</v>
       </c>
       <c r="D532" t="n">
-        <v>15430.89460682</v>
+        <v>15430.90096835</v>
       </c>
       <c r="E532" t="s">
         <v>11</v>
@@ -9785,7 +9785,7 @@
         <v>12</v>
       </c>
       <c r="D533" t="n">
-        <v>2494.10359734</v>
+        <v>2494.104243</v>
       </c>
       <c r="E533" t="s">
         <v>13</v>
@@ -21937,7 +21937,7 @@
         <v>59</v>
       </c>
       <c r="D696" t="n">
-        <v>1676.31878603</v>
+        <v>1897.14146819</v>
       </c>
       <c r="E696" t="s">
         <v>60</v>
@@ -22379,7 +22379,7 @@
         <v>51</v>
       </c>
       <c r="D722" t="n">
-        <v>1174.49939729</v>
+        <v>1216.44616046</v>
       </c>
       <c r="E722" t="s">
         <v>52</v>
@@ -22396,7 +22396,7 @@
         <v>53</v>
       </c>
       <c r="D723" t="n">
-        <v>92.15404734</v>
+        <v>99.39219635</v>
       </c>
       <c r="E723" t="s">
         <v>54</v>
@@ -22413,7 +22413,7 @@
         <v>55</v>
       </c>
       <c r="D724" t="n">
-        <v>1158.54710622</v>
+        <v>1215.75195968</v>
       </c>
       <c r="E724" t="s">
         <v>56</v>
@@ -22430,7 +22430,7 @@
         <v>57</v>
       </c>
       <c r="D725" t="n">
-        <v>1252.33055449</v>
+        <v>1355.04100388</v>
       </c>
       <c r="E725" t="s">
         <v>58</v>
@@ -22447,7 +22447,7 @@
         <v>59</v>
       </c>
       <c r="D726" t="n">
-        <v>1391.12864775</v>
+        <v>1441.10864181</v>
       </c>
       <c r="E726" t="s">
         <v>60</v>
@@ -22464,7 +22464,7 @@
         <v>61</v>
       </c>
       <c r="D727" t="n">
-        <v>291.64852007</v>
+        <v>302.23226359</v>
       </c>
       <c r="E727" t="s">
         <v>62</v>
@@ -22481,7 +22481,7 @@
         <v>63</v>
       </c>
       <c r="D728" t="n">
-        <v>1502.11068704</v>
+        <v>1637.35947533</v>
       </c>
       <c r="E728" t="s">
         <v>64</v>
@@ -22498,7 +22498,7 @@
         <v>65</v>
       </c>
       <c r="D729" t="n">
-        <v>274.72413502</v>
+        <v>318.35484228</v>
       </c>
       <c r="E729" t="s">
         <v>66</v>
@@ -22515,7 +22515,7 @@
         <v>67</v>
       </c>
       <c r="D730" t="n">
-        <v>7276.78423488</v>
+        <v>7552.6733497</v>
       </c>
       <c r="E730" t="s">
         <v>68</v>
@@ -22532,7 +22532,7 @@
         <v>69</v>
       </c>
       <c r="D731" t="n">
-        <v>376.95945197</v>
+        <v>404.50734312</v>
       </c>
       <c r="E731" t="s">
         <v>70</v>
@@ -22549,7 +22549,7 @@
         <v>71</v>
       </c>
       <c r="D732" t="n">
-        <v>837.46956924</v>
+        <v>941.34752888</v>
       </c>
       <c r="E732" t="s">
         <v>72</v>
@@ -22566,7 +22566,7 @@
         <v>73</v>
       </c>
       <c r="D733" t="n">
-        <v>1834.46138382</v>
+        <v>2250.39128296</v>
       </c>
       <c r="E733" t="s">
         <v>74</v>
@@ -22583,7 +22583,7 @@
         <v>75</v>
       </c>
       <c r="D734" t="n">
-        <v>4324.89809306</v>
+        <v>4357.00900307</v>
       </c>
       <c r="E734" t="s">
         <v>76</v>
@@ -22600,7 +22600,7 @@
         <v>77</v>
       </c>
       <c r="D735" t="n">
-        <v>653.44835274</v>
+        <v>661.42789944</v>
       </c>
       <c r="E735" t="s">
         <v>78</v>
@@ -22617,7 +22617,7 @@
         <v>79</v>
       </c>
       <c r="D736" t="n">
-        <v>2101.83432449</v>
+        <v>2104.73156852</v>
       </c>
       <c r="E736" t="s">
         <v>80</v>
@@ -22651,7 +22651,7 @@
         <v>83</v>
       </c>
       <c r="D738" t="n">
-        <v>3005.20949021</v>
+        <v>3010.09118877</v>
       </c>
       <c r="E738" t="s">
         <v>84</v>
@@ -22668,7 +22668,7 @@
         <v>85</v>
       </c>
       <c r="D739" t="n">
-        <v>127.75248163</v>
+        <v>132.50624048</v>
       </c>
       <c r="E739" t="s">
         <v>86</v>
@@ -22685,7 +22685,7 @@
         <v>87</v>
       </c>
       <c r="D740" t="n">
-        <v>506.46534327</v>
+        <v>540.54197896</v>
       </c>
       <c r="E740" t="s">
         <v>88</v>
@@ -22702,7 +22702,7 @@
         <v>89</v>
       </c>
       <c r="D741" t="n">
-        <v>985.97071138</v>
+        <v>1022.99011044</v>
       </c>
       <c r="E741" t="s">
         <v>90</v>
@@ -22719,7 +22719,7 @@
         <v>91</v>
       </c>
       <c r="D742" t="n">
-        <v>1721.34628033</v>
+        <v>1812.50477597</v>
       </c>
       <c r="E742" t="s">
         <v>92</v>
@@ -22736,7 +22736,7 @@
         <v>93</v>
       </c>
       <c r="D743" t="n">
-        <v>216.56714781</v>
+        <v>219.69274226</v>
       </c>
       <c r="E743" t="s">
         <v>94</v>
@@ -22753,7 +22753,7 @@
         <v>95</v>
       </c>
       <c r="D744" t="n">
-        <v>28651.80652707</v>
+        <v>28934.013572</v>
       </c>
       <c r="E744" t="s">
         <v>96</v>
@@ -22770,7 +22770,7 @@
         <v>97</v>
       </c>
       <c r="D745" t="n">
-        <v>427.74632504</v>
+        <v>427.98979017</v>
       </c>
       <c r="E745" t="s">
         <v>98</v>
@@ -22787,7 +22787,7 @@
         <v>99</v>
       </c>
       <c r="D746" t="n">
-        <v>4863.12323761</v>
+        <v>4880.41302899</v>
       </c>
       <c r="E746" t="s">
         <v>100</v>
@@ -22804,7 +22804,7 @@
         <v>101</v>
       </c>
       <c r="D747" t="n">
-        <v>245.36771126</v>
+        <v>255.228168</v>
       </c>
       <c r="E747" t="s">
         <v>102</v>
@@ -22821,7 +22821,7 @@
         <v>103</v>
       </c>
       <c r="D748" t="n">
-        <v>13378.73663933</v>
+        <v>13944.09329528</v>
       </c>
       <c r="E748" t="s">
         <v>104</v>
@@ -22838,7 +22838,7 @@
         <v>105</v>
       </c>
       <c r="D749" t="n">
-        <v>2266.17879532</v>
+        <v>2310.87659147</v>
       </c>
       <c r="E749" t="s">
         <v>106</v>
@@ -22872,7 +22872,7 @@
         <v>109</v>
       </c>
       <c r="D751" t="n">
-        <v>10347.07955976</v>
+        <v>10371.21453299</v>
       </c>
       <c r="E751" t="s">
         <v>110</v>
@@ -22911,13 +22911,13 @@
         <v>96</v>
       </c>
       <c r="B2" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C2" t="n">
-        <v>9.04</v>
+        <v>10.11</v>
       </c>
       <c r="D2" t="n">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="3">
@@ -22925,13 +22925,13 @@
         <v>104</v>
       </c>
       <c r="B3" t="n">
-        <v>13.4</v>
+        <v>13.9</v>
       </c>
       <c r="C3" t="n">
-        <v>9.87</v>
+        <v>14.51</v>
       </c>
       <c r="D3" t="n">
-        <v>4.12</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
@@ -22939,13 +22939,13 @@
         <v>110</v>
       </c>
       <c r="B4" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="C4" t="n">
-        <v>44.14</v>
+        <v>44.48</v>
       </c>
       <c r="D4" t="n">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="5">
@@ -22953,13 +22953,13 @@
         <v>68</v>
       </c>
       <c r="B5" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="C5" t="n">
-        <v>11.09</v>
+        <v>15.3</v>
       </c>
       <c r="D5" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="6">
@@ -22984,10 +22984,10 @@
         <v>4.9</v>
       </c>
       <c r="C7" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="D7" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="8">
@@ -22995,13 +22995,13 @@
         <v>76</v>
       </c>
       <c r="B8" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="C8" t="n">
-        <v>-19</v>
+        <v>-18.4</v>
       </c>
       <c r="D8" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="9">
@@ -23012,66 +23012,66 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.3</v>
+        <v>4.47</v>
       </c>
       <c r="D9" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="B10" t="n">
         <v>2.3</v>
       </c>
       <c r="C10" t="n">
-        <v>2.7</v>
+        <v>34.07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.35</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="C11" t="n">
-        <v>7.06</v>
+        <v>4.72</v>
       </c>
       <c r="D11" t="n">
-        <v>7.54</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.83</v>
+        <v>7.21</v>
       </c>
       <c r="D12" t="n">
-        <v>6.11</v>
+        <v>7.54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>9.29</v>
+        <v>-0.83</v>
       </c>
       <c r="D13" t="n">
-        <v>6.33</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="14">
@@ -23079,13 +23079,13 @@
         <v>92</v>
       </c>
       <c r="B14" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="C14" t="n">
-        <v>-14.28</v>
+        <v>-9.74</v>
       </c>
       <c r="D14" t="n">
-        <v>5.88</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="15">
@@ -23093,41 +23093,41 @@
         <v>64</v>
       </c>
       <c r="B15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.86</v>
+        <v>1.52</v>
       </c>
       <c r="D15" t="n">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B16" t="n">
         <v>1.4</v>
       </c>
       <c r="C16" t="n">
-        <v>-17.01</v>
+        <v>3.98</v>
       </c>
       <c r="D16" t="n">
-        <v>4.67</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B17" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.9</v>
+        <v>-24.04</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.16</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="18">
@@ -23138,10 +23138,10 @@
         <v>1.2</v>
       </c>
       <c r="C18" t="n">
-        <v>2.69</v>
+        <v>6.35</v>
       </c>
       <c r="D18" t="n">
-        <v>7.33</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="19">
@@ -23152,10 +23152,10 @@
         <v>1.2</v>
       </c>
       <c r="C19" t="n">
-        <v>-2.75</v>
+        <v>2.05</v>
       </c>
       <c r="D19" t="n">
-        <v>4.25</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="20">
@@ -23166,10 +23166,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>3.5</v>
+        <v>7.38</v>
       </c>
       <c r="D20" t="n">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="21">
@@ -23177,13 +23177,13 @@
         <v>72</v>
       </c>
       <c r="B21" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.17</v>
+        <v>-0.16</v>
       </c>
       <c r="D21" t="n">
-        <v>7.11</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="22">
@@ -23194,10 +23194,10 @@
         <v>0.7</v>
       </c>
       <c r="C22" t="n">
-        <v>-3.16</v>
+        <v>-1.98</v>
       </c>
       <c r="D22" t="n">
-        <v>3.15</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="23">
@@ -23208,10 +23208,10 @@
         <v>0.5</v>
       </c>
       <c r="C23" t="n">
-        <v>-2.37</v>
+        <v>4.2</v>
       </c>
       <c r="D23" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="24">
@@ -23222,10 +23222,10 @@
         <v>0.4</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.06</v>
+        <v>2.95</v>
       </c>
       <c r="D24" t="n">
-        <v>5.14</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="25">
@@ -23236,7 +23236,7 @@
         <v>0.4</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.58</v>
+        <v>-6.53</v>
       </c>
       <c r="D25" t="n">
         <v>2.15</v>
@@ -23250,10 +23250,10 @@
         <v>0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.26</v>
+        <v>3.9</v>
       </c>
       <c r="D26" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="27">
@@ -23264,38 +23264,38 @@
         <v>0.3</v>
       </c>
       <c r="C27" t="n">
-        <v>-16.09</v>
+        <v>-2.76</v>
       </c>
       <c r="D27" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B28" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C28" t="n">
-        <v>7.97</v>
+        <v>2.96</v>
       </c>
       <c r="D28" t="n">
-        <v>1.42</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B29" t="n">
         <v>0.2</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.02</v>
+        <v>9.53</v>
       </c>
       <c r="D29" t="n">
-        <v>4.06</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="30">
@@ -23306,10 +23306,10 @@
         <v>0.1</v>
       </c>
       <c r="C30" t="n">
-        <v>32.63</v>
+        <v>43.04</v>
       </c>
       <c r="D30" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="31">
@@ -23320,10 +23320,10 @@
         <v>0.1</v>
       </c>
       <c r="C31" t="n">
-        <v>19.67</v>
+        <v>24.13</v>
       </c>
       <c r="D31" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
     </row>
   </sheetData>
@@ -24247,22 +24247,22 @@
         <v>52</v>
       </c>
       <c r="B2" t="n">
-        <v>2.69</v>
+        <v>6.35</v>
       </c>
       <c r="C2" t="n">
-        <v>5.01</v>
+        <v>6.87</v>
       </c>
       <c r="D2" t="n">
-        <v>5.94</v>
+        <v>7.18</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.34</v>
+        <v>-0.65</v>
       </c>
       <c r="F2" t="n">
-        <v>3.97</v>
+        <v>4.33</v>
       </c>
       <c r="G2" t="n">
-        <v>7.33</v>
+        <v>7.49</v>
       </c>
     </row>
     <row r="3">
@@ -24270,22 +24270,22 @@
         <v>54</v>
       </c>
       <c r="B3" t="n">
-        <v>32.63</v>
+        <v>43.04</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3</v>
+        <v>15.59</v>
       </c>
       <c r="D3" t="n">
-        <v>5.42</v>
+        <v>8.11</v>
       </c>
       <c r="E3" t="n">
-        <v>4.93</v>
+        <v>6.53</v>
       </c>
       <c r="F3" t="n">
-        <v>2.48</v>
+        <v>3.25</v>
       </c>
       <c r="G3" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="4">
@@ -24293,22 +24293,22 @@
         <v>94</v>
       </c>
       <c r="B4" t="n">
-        <v>7.97</v>
+        <v>9.53</v>
       </c>
       <c r="C4" t="n">
-        <v>5.63</v>
+        <v>6.39</v>
       </c>
       <c r="D4" t="n">
-        <v>3.16</v>
+        <v>3.66</v>
       </c>
       <c r="E4" t="n">
-        <v>1.67</v>
+        <v>1.97</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.69</v>
+        <v>-1.55</v>
       </c>
       <c r="G4" t="n">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="5">
@@ -24316,16 +24316,16 @@
         <v>98</v>
       </c>
       <c r="B5" t="n">
-        <v>-6.58</v>
+        <v>-6.53</v>
       </c>
       <c r="C5" t="n">
-        <v>17.24</v>
+        <v>17.27</v>
       </c>
       <c r="D5" t="n">
-        <v>18.1</v>
+        <v>18.12</v>
       </c>
       <c r="E5" t="n">
-        <v>10.64</v>
+        <v>10.65</v>
       </c>
       <c r="F5" t="n">
         <v>-3.63</v>
@@ -24339,22 +24339,22 @@
         <v>56</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.75</v>
+        <v>2.05</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.35</v>
+        <v>1.06</v>
       </c>
       <c r="D6" t="n">
-        <v>6.8</v>
+        <v>8.53</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>1.18</v>
       </c>
       <c r="F6" t="n">
-        <v>4.2</v>
+        <v>4.71</v>
       </c>
       <c r="G6" t="n">
-        <v>4.25</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="7">
@@ -24362,22 +24362,22 @@
         <v>58</v>
       </c>
       <c r="B7" t="n">
-        <v>-3.9</v>
+        <v>3.98</v>
       </c>
       <c r="C7" t="n">
-        <v>0.55</v>
+        <v>4.6</v>
       </c>
       <c r="D7" t="n">
-        <v>2.79</v>
+        <v>5.53</v>
       </c>
       <c r="E7" t="n">
-        <v>3.08</v>
+        <v>4.71</v>
       </c>
       <c r="F7" t="n">
-        <v>0.51</v>
+        <v>1.3</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.16</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="8">
@@ -24385,22 +24385,22 @@
         <v>60</v>
       </c>
       <c r="B8" t="n">
-        <v>-17.01</v>
+        <v>-24.04</v>
       </c>
       <c r="C8" t="n">
-        <v>49.77</v>
+        <v>52.43</v>
       </c>
       <c r="D8" t="n">
-        <v>34.15</v>
+        <v>35.74</v>
       </c>
       <c r="E8" t="n">
-        <v>16.46</v>
+        <v>17.29</v>
       </c>
       <c r="F8" t="n">
-        <v>3.08</v>
+        <v>3.44</v>
       </c>
       <c r="G8" t="n">
-        <v>4.67</v>
+        <v>4.83</v>
       </c>
     </row>
     <row r="9">
@@ -24408,22 +24408,22 @@
         <v>64</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.86</v>
+        <v>1.52</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.19</v>
+        <v>3.16</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.73</v>
+        <v>1.13</v>
       </c>
       <c r="E9" t="n">
-        <v>3.32</v>
+        <v>5.12</v>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="G9" t="n">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="10">
@@ -24454,22 +24454,22 @@
         <v>90</v>
       </c>
       <c r="B11" t="n">
-        <v>3.5</v>
+        <v>7.38</v>
       </c>
       <c r="C11" t="n">
-        <v>5.26</v>
+        <v>7.22</v>
       </c>
       <c r="D11" t="n">
-        <v>2.22</v>
+        <v>3.48</v>
       </c>
       <c r="E11" t="n">
-        <v>5.99</v>
+        <v>6.78</v>
       </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>4.29</v>
       </c>
       <c r="G11" t="n">
-        <v>3.72</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="12">
@@ -24477,22 +24477,22 @@
         <v>66</v>
       </c>
       <c r="B12" t="n">
-        <v>-16.09</v>
+        <v>-2.76</v>
       </c>
       <c r="C12" t="n">
-        <v>7.77</v>
+        <v>16.01</v>
       </c>
       <c r="D12" t="n">
-        <v>7.46</v>
+        <v>12.88</v>
       </c>
       <c r="E12" t="n">
-        <v>7.21</v>
+        <v>10.42</v>
       </c>
       <c r="F12" t="n">
-        <v>0.16</v>
+        <v>1.65</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="13">
@@ -24500,22 +24500,22 @@
         <v>78</v>
       </c>
       <c r="B13" t="n">
-        <v>-3.16</v>
+        <v>-1.98</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.67</v>
+        <v>-4.09</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.1</v>
+        <v>-7.73</v>
       </c>
       <c r="E13" t="n">
-        <v>-6.72</v>
+        <v>-6.49</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="G13" t="n">
-        <v>3.15</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="14">
@@ -24523,22 +24523,22 @@
         <v>70</v>
       </c>
       <c r="B14" t="n">
-        <v>-4.06</v>
+        <v>2.95</v>
       </c>
       <c r="C14" t="n">
-        <v>3.65</v>
+        <v>7.37</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.82</v>
+        <v>-6.65</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6</v>
+        <v>0.81</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.55</v>
+        <v>-2.87</v>
       </c>
       <c r="G14" t="n">
-        <v>5.14</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="15">
@@ -24546,22 +24546,22 @@
         <v>68</v>
       </c>
       <c r="B15" t="n">
-        <v>11.09</v>
+        <v>15.3</v>
       </c>
       <c r="C15" t="n">
-        <v>10.16</v>
+        <v>12.23</v>
       </c>
       <c r="D15" t="n">
-        <v>8.97</v>
+        <v>10.33</v>
       </c>
       <c r="E15" t="n">
-        <v>6.11</v>
+        <v>6.9</v>
       </c>
       <c r="F15" t="n">
-        <v>3.28</v>
+        <v>3.66</v>
       </c>
       <c r="G15" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="16">
@@ -24569,19 +24569,19 @@
         <v>80</v>
       </c>
       <c r="B16" t="n">
-        <v>7.06</v>
+        <v>7.21</v>
       </c>
       <c r="C16" t="n">
-        <v>4.69</v>
+        <v>4.76</v>
       </c>
       <c r="D16" t="n">
-        <v>6.28</v>
+        <v>6.32</v>
       </c>
       <c r="E16" t="n">
-        <v>3.57</v>
+        <v>3.6</v>
       </c>
       <c r="F16" t="n">
-        <v>11.64</v>
+        <v>11.66</v>
       </c>
       <c r="G16" t="n">
         <v>7.54</v>
@@ -24592,22 +24592,22 @@
         <v>88</v>
       </c>
       <c r="B17" t="n">
-        <v>-2.37</v>
+        <v>4.2</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>6.41</v>
       </c>
       <c r="D17" t="n">
-        <v>6.81</v>
+        <v>9.15</v>
       </c>
       <c r="E17" t="n">
-        <v>3.75</v>
+        <v>5.11</v>
       </c>
       <c r="F17" t="n">
-        <v>2.73</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.71</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="18">
@@ -24615,22 +24615,22 @@
         <v>104</v>
       </c>
       <c r="B18" t="n">
-        <v>9.87</v>
+        <v>14.51</v>
       </c>
       <c r="C18" t="n">
-        <v>8.79</v>
+        <v>11.07</v>
       </c>
       <c r="D18" t="n">
-        <v>7.94</v>
+        <v>9.44</v>
       </c>
       <c r="E18" t="n">
-        <v>6.51</v>
+        <v>7.39</v>
       </c>
       <c r="F18" t="n">
-        <v>4.1</v>
+        <v>4.53</v>
       </c>
       <c r="G18" t="n">
-        <v>4.12</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="19">
@@ -24638,22 +24638,22 @@
         <v>86</v>
       </c>
       <c r="B19" t="n">
-        <v>19.67</v>
+        <v>24.13</v>
       </c>
       <c r="C19" t="n">
-        <v>11.9</v>
+        <v>13.97</v>
       </c>
       <c r="D19" t="n">
-        <v>10.76</v>
+        <v>12.12</v>
       </c>
       <c r="E19" t="n">
-        <v>7.37</v>
+        <v>8.15</v>
       </c>
       <c r="F19" t="n">
-        <v>2.38</v>
+        <v>2.76</v>
       </c>
       <c r="G19" t="n">
-        <v>3.19</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="20">
@@ -24661,22 +24661,22 @@
         <v>110</v>
       </c>
       <c r="B20" t="n">
-        <v>44.14</v>
+        <v>44.48</v>
       </c>
       <c r="C20" t="n">
-        <v>26.6</v>
+        <v>26.75</v>
       </c>
       <c r="D20" t="n">
-        <v>16.64</v>
+        <v>16.73</v>
       </c>
       <c r="E20" t="n">
-        <v>9.88</v>
+        <v>9.93</v>
       </c>
       <c r="F20" t="n">
-        <v>6.39</v>
+        <v>6.42</v>
       </c>
       <c r="G20" t="n">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="21">
@@ -24684,22 +24684,22 @@
         <v>96</v>
       </c>
       <c r="B21" t="n">
-        <v>9.04</v>
+        <v>10.11</v>
       </c>
       <c r="C21" t="n">
-        <v>13.38</v>
+        <v>13.93</v>
       </c>
       <c r="D21" t="n">
-        <v>14.62</v>
+        <v>15</v>
       </c>
       <c r="E21" t="n">
-        <v>9.92</v>
+        <v>10.14</v>
       </c>
       <c r="F21" t="n">
-        <v>8.89</v>
+        <v>8.99</v>
       </c>
       <c r="G21" t="n">
-        <v>7.2</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="22">
@@ -24707,22 +24707,22 @@
         <v>62</v>
       </c>
       <c r="B22" t="n">
-        <v>0.26</v>
+        <v>3.9</v>
       </c>
       <c r="C22" t="n">
-        <v>2.38</v>
+        <v>4.22</v>
       </c>
       <c r="D22" t="n">
-        <v>0.99</v>
+        <v>2.19</v>
       </c>
       <c r="E22" t="n">
-        <v>4.64</v>
+        <v>5.39</v>
       </c>
       <c r="F22" t="n">
-        <v>2.48</v>
+        <v>2.85</v>
       </c>
       <c r="G22" t="n">
-        <v>1.61</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="23">
@@ -24730,22 +24730,22 @@
         <v>102</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.02</v>
+        <v>2.96</v>
       </c>
       <c r="C23" t="n">
-        <v>7.9</v>
+        <v>10.05</v>
       </c>
       <c r="D23" t="n">
-        <v>2.33</v>
+        <v>3.68</v>
       </c>
       <c r="E23" t="n">
-        <v>2.39</v>
+        <v>3.2</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.93</v>
+        <v>-2.54</v>
       </c>
       <c r="G23" t="n">
-        <v>4.06</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="24">
@@ -24753,22 +24753,22 @@
         <v>100</v>
       </c>
       <c r="B24" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="C24" t="n">
-        <v>4.66</v>
+        <v>4.84</v>
       </c>
       <c r="D24" t="n">
-        <v>8.1</v>
+        <v>8.22</v>
       </c>
       <c r="E24" t="n">
-        <v>5.56</v>
+        <v>5.63</v>
       </c>
       <c r="F24" t="n">
-        <v>7.03</v>
+        <v>7.06</v>
       </c>
       <c r="G24" t="n">
-        <v>9.08</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="25">
@@ -24776,22 +24776,22 @@
         <v>72</v>
       </c>
       <c r="B25" t="n">
-        <v>-11.17</v>
+        <v>-0.16</v>
       </c>
       <c r="C25" t="n">
-        <v>22.29</v>
+        <v>29.65</v>
       </c>
       <c r="D25" t="n">
-        <v>24.19</v>
+        <v>29.12</v>
       </c>
       <c r="E25" t="n">
-        <v>17.54</v>
+        <v>20.32</v>
       </c>
       <c r="F25" t="n">
-        <v>7.44</v>
+        <v>8.71</v>
       </c>
       <c r="G25" t="n">
-        <v>7.11</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="26">
@@ -24799,22 +24799,22 @@
         <v>92</v>
       </c>
       <c r="B26" t="n">
-        <v>-14.28</v>
+        <v>-9.74</v>
       </c>
       <c r="C26" t="n">
-        <v>7.54</v>
+        <v>10.35</v>
       </c>
       <c r="D26" t="n">
-        <v>19.34</v>
+        <v>21.41</v>
       </c>
       <c r="E26" t="n">
-        <v>15.8</v>
+        <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>8.06</v>
+        <v>8.62</v>
       </c>
       <c r="G26" t="n">
-        <v>5.88</v>
+        <v>6.11</v>
       </c>
     </row>
     <row r="27">
@@ -24822,22 +24822,22 @@
         <v>74</v>
       </c>
       <c r="B27" t="n">
-        <v>9.29</v>
+        <v>34.07</v>
       </c>
       <c r="C27" t="n">
-        <v>27.63</v>
+        <v>41.36</v>
       </c>
       <c r="D27" t="n">
-        <v>45.21</v>
+        <v>55.45</v>
       </c>
       <c r="E27" t="n">
-        <v>30.21</v>
+        <v>35.64</v>
       </c>
       <c r="F27" t="n">
-        <v>13.84</v>
+        <v>16.19</v>
       </c>
       <c r="G27" t="n">
-        <v>6.33</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="28">
@@ -24845,22 +24845,22 @@
         <v>84</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3</v>
+        <v>4.47</v>
       </c>
       <c r="C28" t="n">
-        <v>0.39</v>
+        <v>0.47</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.58</v>
+        <v>-1.52</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.98</v>
+        <v>-1.95</v>
       </c>
       <c r="F28" t="n">
-        <v>2.47</v>
+        <v>2.49</v>
       </c>
       <c r="G28" t="n">
-        <v>6.07</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="29">
@@ -24891,22 +24891,22 @@
         <v>76</v>
       </c>
       <c r="B30" t="n">
-        <v>-19</v>
+        <v>-18.4</v>
       </c>
       <c r="C30" t="n">
-        <v>2.93</v>
+        <v>3.31</v>
       </c>
       <c r="D30" t="n">
-        <v>7.84</v>
+        <v>8.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.69</v>
+        <v>0.84</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.32</v>
+        <v>-0.24</v>
       </c>
       <c r="G30" t="n">
-        <v>3.31</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="31">
@@ -24914,22 +24914,22 @@
         <v>106</v>
       </c>
       <c r="B31" t="n">
-        <v>2.7</v>
+        <v>4.72</v>
       </c>
       <c r="C31" t="n">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="D31" t="n">
-        <v>3.24</v>
+        <v>3.92</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.1</v>
+        <v>-0.72</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.96</v>
+        <v>-0.76</v>
       </c>
       <c r="G31" t="n">
-        <v>0.35</v>
+        <v>0.44</v>
       </c>
     </row>
   </sheetData>
@@ -24965,13 +24965,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>99785.57583777</v>
+        <v>102219.15761718</v>
       </c>
       <c r="C2" t="n">
-        <v>104536.89862629</v>
+        <v>104536.90563348</v>
       </c>
       <c r="D2" t="n">
-        <v>4751</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="3">
@@ -24979,13 +24979,13 @@
         <v>2021</v>
       </c>
       <c r="B3" t="n">
-        <v>92807.10818869</v>
+        <v>93027.93087085</v>
       </c>
       <c r="C3" t="n">
         <v>91577.64567625</v>
       </c>
       <c r="D3" t="n">
-        <v>-1229</v>
+        <v>-1450</v>
       </c>
     </row>
     <row r="4">
